--- a/data/concepts_l3.xlsx
+++ b/data/concepts_l3.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B400"/>
+  <dimension ref="A1:B430"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -376,7 +376,7 @@
         </is>
       </c>
       <c r="B2">
-        <v>127</v>
+        <v>147</v>
       </c>
     </row>
     <row r="3">
@@ -386,57 +386,57 @@
         </is>
       </c>
       <c r="B3">
-        <v>82</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Transformation (genetics)</t>
+          <t>Panacea (medicine)</t>
         </is>
       </c>
       <c r="B4">
-        <v>74</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Social sustainability</t>
+          <t>Transition management (governance)</t>
         </is>
       </c>
       <c r="B5">
-        <v>69</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Panacea (medicine)</t>
+          <t>Social sustainability</t>
         </is>
       </c>
       <c r="B6">
-        <v>65</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Transition management (governance)</t>
+          <t>Sustainability organizations</t>
         </is>
       </c>
       <c r="B7">
-        <v>61</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Sustainability organizations</t>
+          <t>Transformation (genetics)</t>
         </is>
       </c>
       <c r="B8">
-        <v>60</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9">
@@ -446,7 +446,7 @@
         </is>
       </c>
       <c r="B9">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10">
@@ -456,77 +456,77 @@
         </is>
       </c>
       <c r="B10">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Legitimacy</t>
+          <t>Democracy</t>
         </is>
       </c>
       <c r="B11">
-        <v>27</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Livelihood</t>
+          <t>Grassroots</t>
         </is>
       </c>
       <c r="B12">
-        <v>27</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Democracy</t>
+          <t>Legitimacy</t>
         </is>
       </c>
       <c r="B13">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Grassroots</t>
+          <t>Livelihood</t>
         </is>
       </c>
       <c r="B14">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Sustainable agriculture</t>
+          <t>Collective action</t>
         </is>
       </c>
       <c r="B15">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Civil society</t>
+          <t>Sustainable agriculture</t>
         </is>
       </c>
       <c r="B16">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Collective action</t>
+          <t>Civil society</t>
         </is>
       </c>
       <c r="B17">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18">
@@ -536,13 +536,13 @@
         </is>
       </c>
       <c r="B18">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Climate change adaptation</t>
+          <t>Climate governance</t>
         </is>
       </c>
       <c r="B19">
@@ -552,11 +552,11 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Climate governance</t>
+          <t>Climate change adaptation</t>
         </is>
       </c>
       <c r="B20">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21">
@@ -566,47 +566,47 @@
         </is>
       </c>
       <c r="B21">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Urban sustainability</t>
+          <t>Social transformation</t>
         </is>
       </c>
       <c r="B22">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Environmental change</t>
+          <t>Urban resilience</t>
         </is>
       </c>
       <c r="B23">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Urban resilience</t>
+          <t>Agroecology</t>
         </is>
       </c>
       <c r="B24">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Agroecology</t>
+          <t>Climate change mitigation</t>
         </is>
       </c>
       <c r="B25">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26">
@@ -616,87 +616,87 @@
         </is>
       </c>
       <c r="B26">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Multi-level governance</t>
+          <t>Urban sustainability</t>
         </is>
       </c>
       <c r="B27">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Social transformation</t>
+          <t>Environmental change</t>
         </is>
       </c>
       <c r="B28">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Stewardship (theology)</t>
+          <t>Multi-level governance</t>
         </is>
       </c>
       <c r="B29">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Deliberation</t>
+          <t>Stewardship (theology)</t>
         </is>
       </c>
       <c r="B30">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Promotion (chess)</t>
+          <t>Thematic analysis</t>
         </is>
       </c>
       <c r="B31">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Technocracy</t>
+          <t>Promotion (chess)</t>
         </is>
       </c>
       <c r="B32">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Thematic analysis</t>
+          <t>Deliberation</t>
         </is>
       </c>
       <c r="B33">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Climate change mitigation</t>
+          <t>Planetary boundaries</t>
         </is>
       </c>
       <c r="B34">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35">
@@ -706,197 +706,197 @@
         </is>
       </c>
       <c r="B35">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Solidarity</t>
+          <t>Technocracy</t>
         </is>
       </c>
       <c r="B36">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Collaborative governance</t>
+          <t>Originality</t>
         </is>
       </c>
       <c r="B37">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Energy system</t>
+          <t>Capitalism</t>
         </is>
       </c>
       <c r="B38">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Global governance</t>
+          <t>Collaborative governance</t>
         </is>
       </c>
       <c r="B39">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Planetary boundaries</t>
+          <t>Global governance</t>
         </is>
       </c>
       <c r="B40">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Capitalism</t>
+          <t>Hegemony</t>
         </is>
       </c>
       <c r="B41">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Climate justice</t>
+          <t>Ideology</t>
         </is>
       </c>
       <c r="B42">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Global warming</t>
+          <t>Mainstreaming</t>
         </is>
       </c>
       <c r="B43">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Investment (military)</t>
+          <t>Climate justice</t>
         </is>
       </c>
       <c r="B44">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Originality</t>
+          <t>Global warming</t>
         </is>
       </c>
       <c r="B45">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Sustainable consumption</t>
+          <t>Investment (military)</t>
         </is>
       </c>
       <c r="B46">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Climate Finance</t>
+          <t>Scopus</t>
         </is>
       </c>
       <c r="B47">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Climate resilience</t>
+          <t>Solidarity</t>
         </is>
       </c>
       <c r="B48">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Geopolitics</t>
+          <t>Sustainable consumption</t>
         </is>
       </c>
       <c r="B49">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Hegemony</t>
+          <t>Backcasting</t>
         </is>
       </c>
       <c r="B50">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Mainstreaming</t>
+          <t>Climate Finance</t>
         </is>
       </c>
       <c r="B51">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Sustainable business</t>
+          <t>Climate resilience</t>
         </is>
       </c>
       <c r="B52">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Agrarian society</t>
+          <t>Degrowth</t>
         </is>
       </c>
       <c r="B53">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Backcasting</t>
+          <t>Social movement</t>
         </is>
       </c>
       <c r="B54">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="55">
@@ -906,93 +906,93 @@
         </is>
       </c>
       <c r="B55">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Degrowth</t>
+          <t>Dominance (genetics)</t>
         </is>
       </c>
       <c r="B56">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Dominance (genetics)</t>
+          <t>Ecological niche</t>
         </is>
       </c>
       <c r="B57">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Extreme weather</t>
+          <t>Energy system</t>
         </is>
       </c>
       <c r="B58">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Ideology</t>
+          <t>Geopolitics</t>
         </is>
       </c>
       <c r="B59">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Natural resource management</t>
+          <t>Landscape ecology</t>
         </is>
       </c>
       <c r="B60">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Political economy of climate change</t>
+          <t>Natural resource management</t>
         </is>
       </c>
       <c r="B61">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Scopus</t>
+          <t>Sustainable business</t>
         </is>
       </c>
       <c r="B62">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Through-the-lens metering</t>
+          <t>Traditional knowledge</t>
         </is>
       </c>
       <c r="B63">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Traditional knowledge</t>
+          <t>2019-20 coronavirus outbreak</t>
         </is>
       </c>
       <c r="B64">
@@ -1002,187 +1002,187 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Agricultural productivity</t>
+          <t>Agrarian society</t>
         </is>
       </c>
       <c r="B65">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Corporate sustainability</t>
+          <t>Ecological resilience</t>
         </is>
       </c>
       <c r="B66">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Ecological niche</t>
+          <t>Elite</t>
         </is>
       </c>
       <c r="B67">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Green growth</t>
+          <t>Energy security</t>
         </is>
       </c>
       <c r="B68">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Landscape ecology</t>
+          <t>Extreme weather</t>
         </is>
       </c>
       <c r="B69">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Social movement</t>
+          <t>Legitimation</t>
         </is>
       </c>
       <c r="B70">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Socioeconomic status</t>
+          <t>Political economy of climate change</t>
         </is>
       </c>
       <c r="B71">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Urban density</t>
+          <t>Sustainable tourism</t>
         </is>
       </c>
       <c r="B72">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Boundary object</t>
+          <t>Agricultural productivity</t>
         </is>
       </c>
       <c r="B73">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Carbon fibers</t>
+          <t>Articulation (sociology)</t>
         </is>
       </c>
       <c r="B74">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Ecological resilience</t>
+          <t>Collective identity</t>
         </is>
       </c>
       <c r="B75">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Electronic business</t>
+          <t>Corporate sustainability</t>
         </is>
       </c>
       <c r="B76">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Elite</t>
+          <t>Ecological footprint</t>
         </is>
       </c>
       <c r="B77">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Emancipation</t>
+          <t>Opposition (politics)</t>
         </is>
       </c>
       <c r="B78">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Energy security</t>
+          <t>Risk governance</t>
         </is>
       </c>
       <c r="B79">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Global change</t>
+          <t>Socioeconomic status</t>
         </is>
       </c>
       <c r="B80">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Health policy</t>
+          <t>Through-the-lens metering</t>
         </is>
       </c>
       <c r="B81">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Incrementalism</t>
+          <t>Urban density</t>
         </is>
       </c>
       <c r="B82">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Legitimation</t>
+          <t>Agricultural diversification</t>
         </is>
       </c>
       <c r="B83">
@@ -1192,7 +1192,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Opposition (politics)</t>
+          <t>Boundary object</t>
         </is>
       </c>
       <c r="B84">
@@ -1202,7 +1202,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Pastoralism</t>
+          <t>Community resilience</t>
         </is>
       </c>
       <c r="B85">
@@ -1212,7 +1212,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Product-service system</t>
+          <t>Convention on Biological Diversity</t>
         </is>
       </c>
       <c r="B86">
@@ -1222,7 +1222,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Project governance</t>
+          <t>Education for sustainable development</t>
         </is>
       </c>
       <c r="B87">
@@ -1232,7 +1232,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Risk governance</t>
+          <t>Emancipation</t>
         </is>
       </c>
       <c r="B88">
@@ -1242,7 +1242,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Servant leadership</t>
+          <t>Global change</t>
         </is>
       </c>
       <c r="B89">
@@ -1252,7 +1252,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Social network analysis</t>
+          <t>Green growth</t>
         </is>
       </c>
       <c r="B90">
@@ -1262,7 +1262,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Socio-ecological system</t>
+          <t>Health policy</t>
         </is>
       </c>
       <c r="B91">
@@ -1272,7 +1272,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Sustainable transport</t>
+          <t>Incrementalism</t>
         </is>
       </c>
       <c r="B92">
@@ -1282,7 +1282,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Value chain</t>
+          <t>Pastoralism</t>
         </is>
       </c>
       <c r="B93">
@@ -1292,7 +1292,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Vulnerability assessment</t>
+          <t>Phenotype</t>
         </is>
       </c>
       <c r="B94">
@@ -1302,117 +1302,117 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>2019-20 coronavirus outbreak</t>
+          <t>Product-service system</t>
         </is>
       </c>
       <c r="B95">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Agricultural diversification</t>
+          <t>Servant leadership</t>
         </is>
       </c>
       <c r="B96">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Articulation (sociology)</t>
+          <t>Social network analysis</t>
         </is>
       </c>
       <c r="B97">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Biodiversity conservation</t>
+          <t>Socio-ecological system</t>
         </is>
       </c>
       <c r="B98">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Bureaucracy</t>
+          <t>Sustainable energy</t>
         </is>
       </c>
       <c r="B99">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Causal loop diagram</t>
+          <t>Sustainable transport</t>
         </is>
       </c>
       <c r="B100">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Change management (ITSM)</t>
+          <t>Technological innovation system</t>
         </is>
       </c>
       <c r="B101">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Citation analysis</t>
+          <t>Urban climate</t>
         </is>
       </c>
       <c r="B102">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Climate policy</t>
+          <t>Urban ecosystem</t>
         </is>
       </c>
       <c r="B103">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Collective identity</t>
+          <t>Value chain</t>
         </is>
       </c>
       <c r="B104">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Collective leadership</t>
+          <t>Vulnerability assessment</t>
         </is>
       </c>
       <c r="B105">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Community resilience</t>
+          <t>Biodiversity conservation</t>
         </is>
       </c>
       <c r="B106">
@@ -1422,7 +1422,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Convention on Biological Diversity</t>
+          <t>Biorefinery</t>
         </is>
       </c>
       <c r="B107">
@@ -1432,7 +1432,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Diplomacy</t>
+          <t>Bureaucracy</t>
         </is>
       </c>
       <c r="B108">
@@ -1442,7 +1442,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Downscaling</t>
+          <t>Business value</t>
         </is>
       </c>
       <c r="B109">
@@ -1452,7 +1452,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Ecological footprint</t>
+          <t>Carbon fibers</t>
         </is>
       </c>
       <c r="B110">
@@ -1462,7 +1462,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Ecosystem management</t>
+          <t>Causal loop diagram</t>
         </is>
       </c>
       <c r="B111">
@@ -1472,7 +1472,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Ecosystem-based management</t>
+          <t>Change management (ITSM)</t>
         </is>
       </c>
       <c r="B112">
@@ -1482,7 +1482,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Education for sustainable development</t>
+          <t>Citation analysis</t>
         </is>
       </c>
       <c r="B113">
@@ -1492,7 +1492,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Electricity generation</t>
+          <t>Climate policy</t>
         </is>
       </c>
       <c r="B114">
@@ -1502,7 +1502,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Environmental politics</t>
+          <t>Collective leadership</t>
         </is>
       </c>
       <c r="B115">
@@ -1512,7 +1512,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Integrated water resources management</t>
+          <t>Conference of the parties</t>
         </is>
       </c>
       <c r="B116">
@@ -1522,7 +1522,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Kyoto Protocol</t>
+          <t>Conservation psychology</t>
         </is>
       </c>
       <c r="B117">
@@ -1532,7 +1532,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Land use, land-use change and forestry</t>
+          <t>Destinations</t>
         </is>
       </c>
       <c r="B118">
@@ -1542,7 +1542,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Learning sciences</t>
+          <t>Diplomacy</t>
         </is>
       </c>
       <c r="B119">
@@ -1552,7 +1552,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Network governance</t>
+          <t>Distributive justice</t>
         </is>
       </c>
       <c r="B120">
@@ -1562,7 +1562,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Regime shift</t>
+          <t>Downscaling</t>
         </is>
       </c>
       <c r="B121">
@@ -1572,7 +1572,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Settlement (finance)</t>
+          <t>Ecological economics</t>
         </is>
       </c>
       <c r="B122">
@@ -1582,7 +1582,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Smart city</t>
+          <t>Ecological modernization</t>
         </is>
       </c>
       <c r="B123">
@@ -1592,7 +1592,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Social network (sociolinguistics)</t>
+          <t>Ecosystem-based management</t>
         </is>
       </c>
       <c r="B124">
@@ -1602,7 +1602,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Sovereignty</t>
+          <t>Electronic business</t>
         </is>
       </c>
       <c r="B125">
@@ -1612,7 +1612,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Stormwater</t>
+          <t>Environmental politics</t>
         </is>
       </c>
       <c r="B126">
@@ -1622,7 +1622,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Strategic environmental assessment</t>
+          <t>Environmental Sustainability Index</t>
         </is>
       </c>
       <c r="B127">
@@ -1632,7 +1632,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Sustainable energy</t>
+          <t>Fisheries management</t>
         </is>
       </c>
       <c r="B128">
@@ -1642,7 +1642,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Systematic review</t>
+          <t>Integrated water resources management</t>
         </is>
       </c>
       <c r="B129">
@@ -1652,7 +1652,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Technological innovation system</t>
+          <t>Kyoto Protocol</t>
         </is>
       </c>
       <c r="B130">
@@ -1662,7 +1662,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Transferability</t>
+          <t>Land use, land-use change and forestry</t>
         </is>
       </c>
       <c r="B131">
@@ -1672,7 +1672,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Urban climate</t>
+          <t>Learning sciences</t>
         </is>
       </c>
       <c r="B132">
@@ -1682,7 +1682,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Urban ecosystem</t>
+          <t>Orchestration</t>
         </is>
       </c>
       <c r="B133">
@@ -1692,7 +1692,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Urbanism</t>
+          <t>Project governance</t>
         </is>
       </c>
       <c r="B134">
@@ -1702,7 +1702,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Water scarcity</t>
+          <t>Regime shift</t>
         </is>
       </c>
       <c r="B135">
@@ -1712,7 +1712,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Web of science</t>
+          <t>Settlement (finance)</t>
         </is>
       </c>
       <c r="B136">
@@ -1722,127 +1722,127 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Agricultural biodiversity</t>
+          <t>Smart city</t>
         </is>
       </c>
       <c r="B137">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Beijing</t>
+          <t>Social identity theory</t>
         </is>
       </c>
       <c r="B138">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Biorefinery</t>
+          <t>Sovereignty</t>
         </is>
       </c>
       <c r="B139">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Business process</t>
+          <t>Stakeholder analysis</t>
         </is>
       </c>
       <c r="B140">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Carbon footprint</t>
+          <t>Strategic environmental assessment</t>
         </is>
       </c>
       <c r="B141">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Citizenship</t>
+          <t>Sustainable Agriculture Innovation Network</t>
         </is>
       </c>
       <c r="B142">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Climate risk</t>
+          <t>Systematic review</t>
         </is>
       </c>
       <c r="B143">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Climate science</t>
+          <t>Transferability</t>
         </is>
       </c>
       <c r="B144">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Conservation psychology</t>
+          <t>Urban design</t>
         </is>
       </c>
       <c r="B145">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Conservation science</t>
+          <t>Urbanism</t>
         </is>
       </c>
       <c r="B146">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Contextualization</t>
+          <t>Water scarcity</t>
         </is>
       </c>
       <c r="B147">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>CRISPR</t>
+          <t>Web of science</t>
         </is>
       </c>
       <c r="B148">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Destinations</t>
+          <t>Agribusiness</t>
         </is>
       </c>
       <c r="B149">
@@ -1852,7 +1852,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Devolution (biology)</t>
+          <t>Business process</t>
         </is>
       </c>
       <c r="B150">
@@ -1862,7 +1862,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Ecological economics</t>
+          <t>Carbon footprint</t>
         </is>
       </c>
       <c r="B151">
@@ -1872,7 +1872,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Ecological health</t>
+          <t>Carbon neutrality</t>
         </is>
       </c>
       <c r="B152">
@@ -1882,7 +1882,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Ecological modernization</t>
+          <t>Citizenship</t>
         </is>
       </c>
       <c r="B153">
@@ -1892,7 +1892,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Energy law</t>
+          <t>Climate risk</t>
         </is>
       </c>
       <c r="B154">
@@ -1902,7 +1902,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Environmentalism</t>
+          <t>Climate science</t>
         </is>
       </c>
       <c r="B155">
@@ -1912,7 +1912,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Fisheries management</t>
+          <t>Contextualization</t>
         </is>
       </c>
       <c r="B156">
@@ -1922,7 +1922,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Global value chain</t>
+          <t>Devolution (biology)</t>
         </is>
       </c>
       <c r="B157">
@@ -1932,7 +1932,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Governmentality</t>
+          <t>Ecosystem management</t>
         </is>
       </c>
       <c r="B158">
@@ -1942,7 +1942,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Green economy</t>
+          <t>Electricity generation</t>
         </is>
       </c>
       <c r="B159">
@@ -1952,7 +1952,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Health promotion</t>
+          <t>Energy law</t>
         </is>
       </c>
       <c r="B160">
@@ -1962,7 +1962,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Knowledge integration</t>
+          <t>Environmentalism</t>
         </is>
       </c>
       <c r="B161">
@@ -1972,7 +1972,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Las vegas</t>
+          <t>Erasmus+</t>
         </is>
       </c>
       <c r="B162">
@@ -1982,7 +1982,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Leadership</t>
+          <t>Global health</t>
         </is>
       </c>
       <c r="B163">
@@ -1992,7 +1992,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Leadership studies</t>
+          <t>Global value chain</t>
         </is>
       </c>
       <c r="B164">
@@ -2002,7 +2002,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Low-carbon economy</t>
+          <t>Governmentality</t>
         </is>
       </c>
       <c r="B165">
@@ -2012,7 +2012,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Marine ecosystem</t>
+          <t>Green economy</t>
         </is>
       </c>
       <c r="B166">
@@ -2022,7 +2022,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Marine protected area</t>
+          <t>Health promotion</t>
         </is>
       </c>
       <c r="B167">
@@ -2032,7 +2032,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Orchestration</t>
+          <t>Human Development Index</t>
         </is>
       </c>
       <c r="B168">
@@ -2042,7 +2042,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Phenotype</t>
+          <t>Industrial ecology</t>
         </is>
       </c>
       <c r="B169">
@@ -2052,7 +2052,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Phoenix</t>
+          <t>Knowledge integration</t>
         </is>
       </c>
       <c r="B170">
@@ -2062,7 +2062,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Polity</t>
+          <t>Land management</t>
         </is>
       </c>
       <c r="B171">
@@ -2072,7 +2072,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Population growth</t>
+          <t>Las vegas</t>
         </is>
       </c>
       <c r="B172">
@@ -2082,7 +2082,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Qualitative analysis</t>
+          <t>Leadership</t>
         </is>
       </c>
       <c r="B173">
@@ -2092,7 +2092,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Rebound effect (conservation)</t>
+          <t>Leadership studies</t>
         </is>
       </c>
       <c r="B174">
@@ -2102,7 +2102,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Regulatory state</t>
+          <t>Life-cycle assessment</t>
         </is>
       </c>
       <c r="B175">
@@ -2112,7 +2112,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Representation (politics)</t>
+          <t>Low-carbon economy</t>
         </is>
       </c>
       <c r="B176">
@@ -2122,7 +2122,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Service provider</t>
+          <t>Management information systems</t>
         </is>
       </c>
       <c r="B177">
@@ -2132,7 +2132,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Shared leadership</t>
+          <t>Marine ecosystem</t>
         </is>
       </c>
       <c r="B178">
@@ -2142,7 +2142,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Social identity theory</t>
+          <t>Oppression</t>
         </is>
       </c>
       <c r="B179">
@@ -2152,7 +2152,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Social vulnerability</t>
+          <t>Overfishing</t>
         </is>
       </c>
       <c r="B180">
@@ -2162,7 +2162,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Software development</t>
+          <t>Policy studies</t>
         </is>
       </c>
       <c r="B181">
@@ -2172,7 +2172,7 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Stakeholder analysis</t>
+          <t>Political change</t>
         </is>
       </c>
       <c r="B182">
@@ -2182,7 +2182,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Stakeholder theory</t>
+          <t>Polity</t>
         </is>
       </c>
       <c r="B183">
@@ -2192,7 +2192,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Sustainability reporting</t>
+          <t>Procedural justice</t>
         </is>
       </c>
       <c r="B184">
@@ -2202,7 +2202,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Sustainable Agriculture Innovation Network</t>
+          <t>Qualitative analysis</t>
         </is>
       </c>
       <c r="B185">
@@ -2212,7 +2212,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Sustainable management</t>
+          <t>Rangeland management</t>
         </is>
       </c>
       <c r="B186">
@@ -2222,7 +2222,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Sustainable tourism</t>
+          <t>Rebound effect (conservation)</t>
         </is>
       </c>
       <c r="B187">
@@ -2232,7 +2232,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Sustainable Value</t>
+          <t>Regulatory state</t>
         </is>
       </c>
       <c r="B188">
@@ -2242,7 +2242,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Systemic risk</t>
+          <t>Representation (politics)</t>
         </is>
       </c>
       <c r="B189">
@@ -2252,7 +2252,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Threatened species</t>
+          <t>Robustness (evolution)</t>
         </is>
       </c>
       <c r="B190">
@@ -2262,7 +2262,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Transnational governance</t>
+          <t>Service provider</t>
         </is>
       </c>
       <c r="B191">
@@ -2272,7 +2272,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Urban design</t>
+          <t>Shared leadership</t>
         </is>
       </c>
       <c r="B192">
@@ -2282,7 +2282,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Urban ecology</t>
+          <t>Social conflict</t>
         </is>
       </c>
       <c r="B193">
@@ -2292,7 +2292,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Value network</t>
+          <t>Social network (sociolinguistics)</t>
         </is>
       </c>
       <c r="B194">
@@ -2302,7 +2302,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Virtue ethics</t>
+          <t>Social vulnerability</t>
         </is>
       </c>
       <c r="B195">
@@ -2312,7 +2312,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Welfare state</t>
+          <t>Software development</t>
         </is>
       </c>
       <c r="B196">
@@ -2322,7 +2322,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Wildlife conservation</t>
+          <t>Stakeholder theory</t>
         </is>
       </c>
       <c r="B197">
@@ -2332,137 +2332,137 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>Agonism</t>
+          <t>Stormwater</t>
         </is>
       </c>
       <c r="B198">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Agribusiness</t>
+          <t>Sustainability reporting</t>
         </is>
       </c>
       <c r="B199">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>Agricultural policy</t>
+          <t>Sustainable design</t>
         </is>
       </c>
       <c r="B200">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Agroecosystem</t>
+          <t>Sustainable management</t>
         </is>
       </c>
       <c r="B201">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>Air travel</t>
+          <t>Sustainable Value</t>
         </is>
       </c>
       <c r="B202">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Antibiotic resistance</t>
+          <t>Threatened species</t>
         </is>
       </c>
       <c r="B203">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Aquaculture</t>
+          <t>Tourism geography</t>
         </is>
       </c>
       <c r="B204">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>Aquifer</t>
+          <t>Tragedy of the commons</t>
         </is>
       </c>
       <c r="B205">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>Artisanal fishing</t>
+          <t>Transnational governance</t>
         </is>
       </c>
       <c r="B206">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>Austerity</t>
+          <t>Value network</t>
         </is>
       </c>
       <c r="B207">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>Behaviour change</t>
+          <t>Virtue ethics</t>
         </is>
       </c>
       <c r="B208">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>Betweenness centrality</t>
+          <t>Wage labour</t>
         </is>
       </c>
       <c r="B209">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>Bibliographic coupling</t>
+          <t>Wildlife conservation</t>
         </is>
       </c>
       <c r="B210">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>Big Five personality traits</t>
+          <t>Agricultural biodiversity</t>
         </is>
       </c>
       <c r="B211">
@@ -2472,7 +2472,7 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>Biodiesel</t>
+          <t>Agricultural policy</t>
         </is>
       </c>
       <c r="B212">
@@ -2482,7 +2482,7 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>Bioenergy</t>
+          <t>Agroecosystem</t>
         </is>
       </c>
       <c r="B213">
@@ -2492,7 +2492,7 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>Biological integrity</t>
+          <t>Air travel</t>
         </is>
       </c>
       <c r="B214">
@@ -2502,7 +2502,7 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>Biome</t>
+          <t>Antibiotic resistance</t>
         </is>
       </c>
       <c r="B215">
@@ -2512,7 +2512,7 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>Bioproducts</t>
+          <t>Aquaculture</t>
         </is>
       </c>
       <c r="B216">
@@ -2522,7 +2522,7 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>Business analysis</t>
+          <t>Aquifer</t>
         </is>
       </c>
       <c r="B217">
@@ -2532,7 +2532,7 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>Business value</t>
+          <t>Austerity</t>
         </is>
       </c>
       <c r="B218">
@@ -2542,7 +2542,7 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>Carbon dioxide in Earth's atmosphere</t>
+          <t>Base pair</t>
         </is>
       </c>
       <c r="B219">
@@ -2552,7 +2552,7 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>Carbon neutrality</t>
+          <t>Behaviour change</t>
         </is>
       </c>
       <c r="B220">
@@ -2562,7 +2562,7 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>Carbon sequestration</t>
+          <t>Betweenness centrality</t>
         </is>
       </c>
       <c r="B221">
@@ -2572,7 +2572,7 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>Carnivore</t>
+          <t>Bibliographic coupling</t>
         </is>
       </c>
       <c r="B222">
@@ -2582,7 +2582,7 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>Chimera (genetics)</t>
+          <t>Big Five personality traits</t>
         </is>
       </c>
       <c r="B223">
@@ -2592,7 +2592,7 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>Choreography</t>
+          <t>Biodiesel</t>
         </is>
       </c>
       <c r="B224">
@@ -2602,7 +2602,7 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>Climate model</t>
+          <t>Bioenergy</t>
         </is>
       </c>
       <c r="B225">
@@ -2612,7 +2612,7 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>Cloud computing security</t>
+          <t>Biological integrity</t>
         </is>
       </c>
       <c r="B226">
@@ -2622,7 +2622,7 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>Co-citation</t>
+          <t>Biome</t>
         </is>
       </c>
       <c r="B227">
@@ -2632,7 +2632,7 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>Code (set theory)</t>
+          <t>Bioproducts</t>
         </is>
       </c>
       <c r="B228">
@@ -2642,7 +2642,7 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>Community forestry</t>
+          <t>Black feminism</t>
         </is>
       </c>
       <c r="B229">
@@ -2652,7 +2652,7 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>Compartmentalization (fire protection)</t>
+          <t>Brownfield</t>
         </is>
       </c>
       <c r="B230">
@@ -2662,7 +2662,7 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>Conditionality</t>
+          <t>Business analysis</t>
         </is>
       </c>
       <c r="B231">
@@ -2672,7 +2672,7 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>Confirmatory factor analysis</t>
+          <t>Business Model Canvas</t>
         </is>
       </c>
       <c r="B232">
@@ -2682,7 +2682,7 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>Conservatism</t>
+          <t>Business valuation</t>
         </is>
       </c>
       <c r="B233">
@@ -2692,7 +2692,7 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>Construals</t>
+          <t>Carbon dioxide in Earth's atmosphere</t>
         </is>
       </c>
       <c r="B234">
@@ -2702,7 +2702,7 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>Cooperative learning</t>
+          <t>Carbon sequestration</t>
         </is>
       </c>
       <c r="B235">
@@ -2712,7 +2712,7 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>Coral bleaching</t>
+          <t>Carnivore</t>
         </is>
       </c>
       <c r="B236">
@@ -2722,7 +2722,7 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>Coral reef protection</t>
+          <t>Chimera (genetics)</t>
         </is>
       </c>
       <c r="B237">
@@ -2732,7 +2732,7 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>Critical realism (philosophy of perception)</t>
+          <t>Choreography</t>
         </is>
       </c>
       <c r="B238">
@@ -2742,7 +2742,7 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>Cultural geography</t>
+          <t>Climate model</t>
         </is>
       </c>
       <c r="B239">
@@ -2752,7 +2752,7 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>Data quality</t>
+          <t>Cloud computing security</t>
         </is>
       </c>
       <c r="B240">
@@ -2762,7 +2762,7 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>Decolonization</t>
+          <t>Co-citation</t>
         </is>
       </c>
       <c r="B241">
@@ -2772,7 +2772,7 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>Desalination</t>
+          <t>Code (set theory)</t>
         </is>
       </c>
       <c r="B242">
@@ -2782,7 +2782,7 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>Dingo</t>
+          <t>Common Agricultural Policy</t>
         </is>
       </c>
       <c r="B243">
@@ -2792,7 +2792,7 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>Distributive justice</t>
+          <t>Community forestry</t>
         </is>
       </c>
       <c r="B244">
@@ -2802,7 +2802,7 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>Dormancy</t>
+          <t>Compartmentalization (fire protection)</t>
         </is>
       </c>
       <c r="B245">
@@ -2812,7 +2812,7 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>Duopoly</t>
+          <t>Conditionality</t>
         </is>
       </c>
       <c r="B246">
@@ -2822,7 +2822,7 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>Earth Summit</t>
+          <t>Confirmatory factor analysis</t>
         </is>
       </c>
       <c r="B247">
@@ -2832,7 +2832,7 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>Eco-innovation</t>
+          <t>Conservation science</t>
         </is>
       </c>
       <c r="B248">
@@ -2842,7 +2842,7 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>Economic collapse</t>
+          <t>Conservatism</t>
         </is>
       </c>
       <c r="B249">
@@ -2852,7 +2852,7 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>Economic governance</t>
+          <t>Contract farming</t>
         </is>
       </c>
       <c r="B250">
@@ -2862,7 +2862,7 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>Economic interventionism</t>
+          <t>Cooperative learning</t>
         </is>
       </c>
       <c r="B251">
@@ -2872,7 +2872,7 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>Economic reform</t>
+          <t>Coral bleaching</t>
         </is>
       </c>
       <c r="B252">
@@ -2882,7 +2882,7 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>Economic shortage</t>
+          <t>CRISPR</t>
         </is>
       </c>
       <c r="B253">
@@ -2892,7 +2892,7 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>Ecosystem approach</t>
+          <t>Critical realism (philosophy of perception)</t>
         </is>
       </c>
       <c r="B254">
@@ -2902,7 +2902,7 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>Egalitarianism</t>
+          <t>Cultural geography</t>
         </is>
       </c>
       <c r="B255">
@@ -2912,7 +2912,7 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>Electrification</t>
+          <t>Data quality</t>
         </is>
       </c>
       <c r="B256">
@@ -2922,7 +2922,7 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>Energy engineering</t>
+          <t>Decolonization</t>
         </is>
       </c>
       <c r="B257">
@@ -2932,7 +2932,7 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>Energy intensity</t>
+          <t>Demand response</t>
         </is>
       </c>
       <c r="B258">
@@ -2942,7 +2942,7 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>Energy management</t>
+          <t>Desalination</t>
         </is>
       </c>
       <c r="B259">
@@ -2952,7 +2952,7 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>Energy market</t>
+          <t>Dingo</t>
         </is>
       </c>
       <c r="B260">
@@ -2962,7 +2962,7 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>Energy planning</t>
+          <t>Dormancy</t>
         </is>
       </c>
       <c r="B261">
@@ -2972,7 +2972,7 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>Energy storage</t>
+          <t>Duopoly</t>
         </is>
       </c>
       <c r="B262">
@@ -2982,7 +2982,7 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>Energy supply</t>
+          <t>Earth Summit</t>
         </is>
       </c>
       <c r="B263">
@@ -2992,7 +2992,7 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>Environmental consciousness</t>
+          <t>Eco-innovation</t>
         </is>
       </c>
       <c r="B264">
@@ -3002,7 +3002,7 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>Environmental issues with coral reefs</t>
+          <t>Ecological health</t>
         </is>
       </c>
       <c r="B265">
@@ -3012,7 +3012,7 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>Environmental management system</t>
+          <t>Economic collapse</t>
         </is>
       </c>
       <c r="B266">
@@ -3022,7 +3022,7 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>Environmental Sustainability Index</t>
+          <t>Economic governance</t>
         </is>
       </c>
       <c r="B267">
@@ -3032,7 +3032,7 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>Epistemic virtue</t>
+          <t>Economic interventionism</t>
         </is>
       </c>
       <c r="B268">
@@ -3042,7 +3042,7 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>Epoch (astronomy)</t>
+          <t>Economic reform</t>
         </is>
       </c>
       <c r="B269">
@@ -3052,7 +3052,7 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>Erasmus+</t>
+          <t>Economic shortage</t>
         </is>
       </c>
       <c r="B270">
@@ -3062,7 +3062,7 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>Exploitation of natural resources</t>
+          <t>Ecosystem approach</t>
         </is>
       </c>
       <c r="B271">
@@ -3072,7 +3072,7 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>Exploratory factor analysis</t>
+          <t>Egalitarianism</t>
         </is>
       </c>
       <c r="B272">
@@ -3082,7 +3082,7 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>Extreme heat</t>
+          <t>Electrification</t>
         </is>
       </c>
       <c r="B273">
@@ -3092,7 +3092,7 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>Fashion industry</t>
+          <t>Energy engineering</t>
         </is>
       </c>
       <c r="B274">
@@ -3102,7 +3102,7 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>Fast fashion</t>
+          <t>Energy intensity</t>
         </is>
       </c>
       <c r="B275">
@@ -3112,7 +3112,7 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>Fisheries Research</t>
+          <t>Energy management</t>
         </is>
       </c>
       <c r="B276">
@@ -3122,7 +3122,7 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>Fishing industry</t>
+          <t>Energy market</t>
         </is>
       </c>
       <c r="B277">
@@ -3132,7 +3132,7 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>Flood mitigation</t>
+          <t>Energy planning</t>
         </is>
       </c>
       <c r="B278">
@@ -3142,7 +3142,7 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>Flood risk management</t>
+          <t>Energy storage</t>
         </is>
       </c>
       <c r="B279">
@@ -3152,7 +3152,7 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>Focal point</t>
+          <t>Energy supply</t>
         </is>
       </c>
       <c r="B280">
@@ -3162,7 +3162,7 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>Food sector</t>
+          <t>Environmental consciousness</t>
         </is>
       </c>
       <c r="B281">
@@ -3172,7 +3172,7 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>Fukushima Nuclear Accident</t>
+          <t>Environmental management system</t>
         </is>
       </c>
       <c r="B282">
@@ -3182,7 +3182,7 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>Game Developer</t>
+          <t>Epistemic virtue</t>
         </is>
       </c>
       <c r="B283">
@@ -3192,7 +3192,7 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>Global health</t>
+          <t>Epoch (astronomy)</t>
         </is>
       </c>
       <c r="B284">
@@ -3202,7 +3202,7 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>Health administration</t>
+          <t>Exploitation of natural resources</t>
         </is>
       </c>
       <c r="B285">
@@ -3212,7 +3212,7 @@
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>Health equity</t>
+          <t>Exploratory factor analysis</t>
         </is>
       </c>
       <c r="B286">
@@ -3222,7 +3222,7 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>Health informatics</t>
+          <t>Extreme heat</t>
         </is>
       </c>
       <c r="B287">
@@ -3232,7 +3232,7 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>Health security</t>
+          <t>Factors of production</t>
         </is>
       </c>
       <c r="B288">
@@ -3242,7 +3242,7 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>Healthcare system</t>
+          <t>Fashion industry</t>
         </is>
       </c>
       <c r="B289">
@@ -3252,7 +3252,7 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>Historical geography</t>
+          <t>Fast fashion</t>
         </is>
       </c>
       <c r="B290">
@@ -3262,7 +3262,7 @@
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>Hospitality</t>
+          <t>Fisheries Research</t>
         </is>
       </c>
       <c r="B291">
@@ -3272,7 +3272,7 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>Human genetics</t>
+          <t>Fishing industry</t>
         </is>
       </c>
       <c r="B292">
@@ -3282,7 +3282,7 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>Human–wildlife conflict</t>
+          <t>Flood mitigation</t>
         </is>
       </c>
       <c r="B293">
@@ -3292,7 +3292,7 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>Hydrogen fuel</t>
+          <t>Flood risk management</t>
         </is>
       </c>
       <c r="B294">
@@ -3302,7 +3302,7 @@
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>Impact investing</t>
+          <t>Food sector</t>
         </is>
       </c>
       <c r="B295">
@@ -3312,7 +3312,7 @@
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>Industrial ecology</t>
+          <t>Fukushima Nuclear Accident</t>
         </is>
       </c>
       <c r="B296">
@@ -3322,7 +3322,7 @@
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>Institutional investor</t>
+          <t>Game Developer</t>
         </is>
       </c>
       <c r="B297">
@@ -3332,7 +3332,7 @@
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>Integrated coastal zone management</t>
+          <t>GIS and public health</t>
         </is>
       </c>
       <c r="B298">
@@ -3342,7 +3342,7 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>Intergenerational equity</t>
+          <t>Gloss (optics)</t>
         </is>
       </c>
       <c r="B299">
@@ -3352,7 +3352,7 @@
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>Internal consistency</t>
+          <t>Gold extraction</t>
         </is>
       </c>
       <c r="B300">
@@ -3362,7 +3362,7 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>International investment</t>
+          <t>Good governance</t>
         </is>
       </c>
       <c r="B301">
@@ -3372,7 +3372,7 @@
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>Intrapersonal communication</t>
+          <t>Health administration</t>
         </is>
       </c>
       <c r="B302">
@@ -3382,7 +3382,7 @@
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>Ionic liquid</t>
+          <t>Health equity</t>
         </is>
       </c>
       <c r="B303">
@@ -3392,7 +3392,7 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>Knowledge creation</t>
+          <t>Health informatics</t>
         </is>
       </c>
       <c r="B304">
@@ -3402,7 +3402,7 @@
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>Land cover</t>
+          <t>Health security</t>
         </is>
       </c>
       <c r="B305">
@@ -3412,7 +3412,7 @@
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>Land grabbing</t>
+          <t>Healthcare system</t>
         </is>
       </c>
       <c r="B306">
@@ -3422,7 +3422,7 @@
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>Land management</t>
+          <t>Historical geography</t>
         </is>
       </c>
       <c r="B307">
@@ -3432,7 +3432,7 @@
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>Land-use planning</t>
+          <t>Historical institutionalism</t>
         </is>
       </c>
       <c r="B308">
@@ -3442,7 +3442,7 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>Legal realism</t>
+          <t>Hospitality</t>
         </is>
       </c>
       <c r="B309">
@@ -3452,7 +3452,7 @@
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>Life-cycle assessment</t>
+          <t>Human genetics</t>
         </is>
       </c>
       <c r="B310">
@@ -3462,7 +3462,7 @@
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>Linkage (software)</t>
+          <t>Human–wildlife conflict</t>
         </is>
       </c>
       <c r="B311">
@@ -3472,7 +3472,7 @@
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>Mains electricity</t>
+          <t>Hydrogen fuel</t>
         </is>
       </c>
       <c r="B312">
@@ -3482,7 +3482,7 @@
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>Marketization</t>
+          <t>Impact investing</t>
         </is>
       </c>
       <c r="B313">
@@ -3492,7 +3492,7 @@
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>Medical genetics</t>
+          <t>Impermanence</t>
         </is>
       </c>
       <c r="B314">
@@ -3502,7 +3502,7 @@
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>Meta-ethics</t>
+          <t>Information silo</t>
         </is>
       </c>
       <c r="B315">
@@ -3512,7 +3512,7 @@
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>Militarization</t>
+          <t>Institutional investor</t>
         </is>
       </c>
       <c r="B316">
@@ -3522,7 +3522,7 @@
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>Millennium Development Goals</t>
+          <t>Institutionalism</t>
         </is>
       </c>
       <c r="B317">
@@ -3532,7 +3532,7 @@
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>Modal shift</t>
+          <t>Integrated coastal zone management</t>
         </is>
       </c>
       <c r="B318">
@@ -3542,7 +3542,7 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>Negative feedback</t>
+          <t>Integrated reporting</t>
         </is>
       </c>
       <c r="B319">
@@ -3552,7 +3552,7 @@
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>New england</t>
+          <t>Interest group</t>
         </is>
       </c>
       <c r="B320">
@@ -3562,7 +3562,7 @@
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>New horizons</t>
+          <t>Intergenerational equity</t>
         </is>
       </c>
       <c r="B321">
@@ -3572,7 +3572,7 @@
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>Nomological network</t>
+          <t>Internal consistency</t>
         </is>
       </c>
       <c r="B322">
@@ -3582,7 +3582,7 @@
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>Non-renewable resource</t>
+          <t>International investment</t>
         </is>
       </c>
       <c r="B323">
@@ -3592,7 +3592,7 @@
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>Normative social influence</t>
+          <t>Intrapersonal communication</t>
         </is>
       </c>
       <c r="B324">
@@ -3602,7 +3602,7 @@
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>Nuclear disaster</t>
+          <t>Ionic liquid</t>
         </is>
       </c>
       <c r="B325">
@@ -3612,7 +3612,7 @@
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>Ocean chemistry</t>
+          <t>Land cover</t>
         </is>
       </c>
       <c r="B326">
@@ -3622,7 +3622,7 @@
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>Offshore wind power</t>
+          <t>Land grabbing</t>
         </is>
       </c>
       <c r="B327">
@@ -3632,7 +3632,7 @@
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>Oppression</t>
+          <t>Land tenure</t>
         </is>
       </c>
       <c r="B328">
@@ -3642,7 +3642,7 @@
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>Organic farming</t>
+          <t>Land-use planning</t>
         </is>
       </c>
       <c r="B329">
@@ -3652,7 +3652,7 @@
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>Overfishing</t>
+          <t>Latent Dirichlet allocation</t>
         </is>
       </c>
       <c r="B330">
@@ -3662,7 +3662,7 @@
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>Overgrazing</t>
+          <t>Legal realism</t>
         </is>
       </c>
       <c r="B331">
@@ -3672,7 +3672,7 @@
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>Pacific islanders</t>
+          <t>Linkage (software)</t>
         </is>
       </c>
       <c r="B332">
@@ -3682,7 +3682,7 @@
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>Parliament</t>
+          <t>Mains electricity</t>
         </is>
       </c>
       <c r="B333">
@@ -3692,7 +3692,7 @@
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>Participatory design</t>
+          <t>Marine protected area</t>
         </is>
       </c>
       <c r="B334">
@@ -3702,7 +3702,7 @@
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>Per capita</t>
+          <t>Marketization</t>
         </is>
       </c>
       <c r="B335">
@@ -3712,7 +3712,7 @@
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>Photovoltaics</t>
+          <t>Medical genetics</t>
         </is>
       </c>
       <c r="B336">
@@ -3722,7 +3722,7 @@
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>Plasmodium falciparum</t>
+          <t>Meta-ethics</t>
         </is>
       </c>
       <c r="B337">
@@ -3732,7 +3732,7 @@
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>Poaching</t>
+          <t>Microgrid</t>
         </is>
       </c>
       <c r="B338">
@@ -3742,7 +3742,7 @@
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>Populism</t>
+          <t>Militarization</t>
         </is>
       </c>
       <c r="B339">
@@ -3752,7 +3752,7 @@
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>Project commissioning</t>
+          <t>Millennium Development Goals</t>
         </is>
       </c>
       <c r="B340">
@@ -3762,7 +3762,7 @@
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>Project management triangle</t>
+          <t>Modal shift</t>
         </is>
       </c>
       <c r="B341">
@@ -3772,7 +3772,7 @@
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>Project portfolio management</t>
+          <t>Negative feedback</t>
         </is>
       </c>
       <c r="B342">
@@ -3782,7 +3782,7 @@
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>Prosumer</t>
+          <t>Network governance</t>
         </is>
       </c>
       <c r="B343">
@@ -3792,7 +3792,7 @@
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>Quality assurance</t>
+          <t>New england</t>
         </is>
       </c>
       <c r="B344">
@@ -3802,7 +3802,7 @@
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>Random graph</t>
+          <t>Nomological network</t>
         </is>
       </c>
       <c r="B345">
@@ -3812,7 +3812,7 @@
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>Rangeland management</t>
+          <t>Non-renewable resource</t>
         </is>
       </c>
       <c r="B346">
@@ -3822,7 +3822,7 @@
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>Redistribution (election)</t>
+          <t>Normative social influence</t>
         </is>
       </c>
       <c r="B347">
@@ -3832,7 +3832,7 @@
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>Relationship marketing</t>
+          <t>Nuclear disaster</t>
         </is>
       </c>
       <c r="B348">
@@ -3842,7 +3842,7 @@
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>Renewable fuels</t>
+          <t>Ocean chemistry</t>
         </is>
       </c>
       <c r="B349">
@@ -3852,7 +3852,7 @@
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>Requirements engineering</t>
+          <t>Organic farming</t>
         </is>
       </c>
       <c r="B350">
@@ -3862,7 +3862,7 @@
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>Resilience of coral reefs</t>
+          <t>Overgrazing</t>
         </is>
       </c>
       <c r="B351">
@@ -3872,7 +3872,7 @@
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>Resource curse</t>
+          <t>Pacific islanders</t>
         </is>
       </c>
       <c r="B352">
@@ -3882,7 +3882,7 @@
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>Resource recovery</t>
+          <t>Parliament</t>
         </is>
       </c>
       <c r="B353">
@@ -3892,7 +3892,7 @@
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>Return on marketing investment</t>
+          <t>Participatory design</t>
         </is>
       </c>
       <c r="B354">
@@ -3902,7 +3902,7 @@
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>Ribosomal RNA</t>
+          <t>Per capita</t>
         </is>
       </c>
       <c r="B355">
@@ -3912,7 +3912,7 @@
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>Right to the city</t>
+          <t>Phoenix</t>
         </is>
       </c>
       <c r="B356">
@@ -3922,7 +3922,7 @@
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>Riparian zone</t>
+          <t>Photovoltaics</t>
         </is>
       </c>
       <c r="B357">
@@ -3932,7 +3932,7 @@
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>Risk perception</t>
+          <t>Place identity</t>
         </is>
       </c>
       <c r="B358">
@@ -3942,7 +3942,7 @@
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>RNA</t>
+          <t>Plasmodium falciparum</t>
         </is>
       </c>
       <c r="B359">
@@ -3952,7 +3952,7 @@
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>Robustness (evolution)</t>
+          <t>Poaching</t>
         </is>
       </c>
       <c r="B360">
@@ -3962,7 +3962,7 @@
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>Ruderal species</t>
+          <t>Polycentricity</t>
         </is>
       </c>
       <c r="B361">
@@ -3972,7 +3972,7 @@
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>Rule of law</t>
+          <t>Population growth</t>
         </is>
       </c>
       <c r="B362">
@@ -3982,7 +3982,7 @@
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>Rurality</t>
+          <t>Populism</t>
         </is>
       </c>
       <c r="B363">
@@ -3992,7 +3992,7 @@
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>Sampling frame</t>
+          <t>Project management triangle</t>
         </is>
       </c>
       <c r="B364">
@@ -4002,7 +4002,7 @@
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>Science Citation Index</t>
+          <t>Project portfolio management</t>
         </is>
       </c>
       <c r="B365">
@@ -4012,7 +4012,7 @@
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>Seagrass</t>
+          <t>Prosumer</t>
         </is>
       </c>
       <c r="B366">
@@ -4022,7 +4022,7 @@
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>Social activism</t>
+          <t>Public sphere</t>
         </is>
       </c>
       <c r="B367">
@@ -4032,7 +4032,7 @@
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>Social conflict</t>
+          <t>Quality assurance</t>
         </is>
       </c>
       <c r="B368">
@@ -4042,7 +4042,7 @@
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>Social determinants of health</t>
+          <t>Random graph</t>
         </is>
       </c>
       <c r="B369">
@@ -4052,7 +4052,7 @@
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>Social injustice</t>
+          <t>Redistribution (election)</t>
         </is>
       </c>
       <c r="B370">
@@ -4062,7 +4062,7 @@
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>Social practice</t>
+          <t>Relationship marketing</t>
         </is>
       </c>
       <c r="B371">
@@ -4072,7 +4072,7 @@
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>Social reproduction</t>
+          <t>Renewable fuels</t>
         </is>
       </c>
       <c r="B372">
@@ -4082,7 +4082,7 @@
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>Soil carbon</t>
+          <t>Requirements engineering</t>
         </is>
       </c>
       <c r="B373">
@@ -4092,7 +4092,7 @@
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>Stock assessment</t>
+          <t>Resilience of coral reefs</t>
         </is>
       </c>
       <c r="B374">
@@ -4102,7 +4102,7 @@
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>Stock market</t>
+          <t>Resource curse</t>
         </is>
       </c>
       <c r="B375">
@@ -4112,7 +4112,7 @@
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>Storytelling</t>
+          <t>Resource recovery</t>
         </is>
       </c>
       <c r="B376">
@@ -4122,7 +4122,7 @@
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>Strategic financial management</t>
+          <t>Resource-based view</t>
         </is>
       </c>
       <c r="B377">
@@ -4132,7 +4132,7 @@
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>Subsistence agriculture</t>
+          <t>Returns to scale</t>
         </is>
       </c>
       <c r="B378">
@@ -4142,7 +4142,7 @@
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>Supply chain management</t>
+          <t>Reverse logistics</t>
         </is>
       </c>
       <c r="B379">
@@ -4152,7 +4152,7 @@
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>Sustainable design</t>
+          <t>Reverse osmosis</t>
         </is>
       </c>
       <c r="B380">
@@ -4162,7 +4162,7 @@
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>Sustainable production</t>
+          <t>Ribosomal RNA</t>
         </is>
       </c>
       <c r="B381">
@@ -4172,7 +4172,7 @@
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>Sustainable society</t>
+          <t>Right to the city</t>
         </is>
       </c>
       <c r="B382">
@@ -4182,7 +4182,7 @@
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>Technical Journalism</t>
+          <t>Riparian zone</t>
         </is>
       </c>
       <c r="B383">
@@ -4192,7 +4192,7 @@
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>The Conceptual Framework</t>
+          <t>Risk perception</t>
         </is>
       </c>
       <c r="B384">
@@ -4202,7 +4202,7 @@
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>Total factor productivity</t>
+          <t>RNA</t>
         </is>
       </c>
       <c r="B385">
@@ -4212,7 +4212,7 @@
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>Tragedy of the commons</t>
+          <t>Ruderal species</t>
         </is>
       </c>
       <c r="B386">
@@ -4222,7 +4222,7 @@
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>Transcription factor</t>
+          <t>Rule of law</t>
         </is>
       </c>
       <c r="B387">
@@ -4232,7 +4232,7 @@
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>Urban agriculture</t>
+          <t>Rurality</t>
         </is>
       </c>
       <c r="B388">
@@ -4242,7 +4242,7 @@
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>Urban greening</t>
+          <t>Sampling frame</t>
         </is>
       </c>
       <c r="B389">
@@ -4252,7 +4252,7 @@
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>Urban politics</t>
+          <t>Schism</t>
         </is>
       </c>
       <c r="B390">
@@ -4262,7 +4262,7 @@
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>Vagueness</t>
+          <t>Science Citation Index</t>
         </is>
       </c>
       <c r="B391">
@@ -4272,7 +4272,7 @@
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>Video game design</t>
+          <t>Science communication</t>
         </is>
       </c>
       <c r="B392">
@@ -4282,7 +4282,7 @@
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>Vitalism</t>
+          <t>Seagrass</t>
         </is>
       </c>
       <c r="B393">
@@ -4292,7 +4292,7 @@
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>Vulnerability index</t>
+          <t>Shareholder</t>
         </is>
       </c>
       <c r="B394">
@@ -4302,7 +4302,7 @@
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>Wage labour</t>
+          <t>Social determinants of health</t>
         </is>
       </c>
       <c r="B395">
@@ -4312,7 +4312,7 @@
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>Water infrastructure</t>
+          <t>Social injustice</t>
         </is>
       </c>
       <c r="B396">
@@ -4322,7 +4322,7 @@
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>Water sector</t>
+          <t>Social practice</t>
         </is>
       </c>
       <c r="B397">
@@ -4332,7 +4332,7 @@
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>Water security</t>
+          <t>Social reproduction</t>
         </is>
       </c>
       <c r="B398">
@@ -4342,7 +4342,7 @@
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>Welfare reform</t>
+          <t>Soil carbon</t>
         </is>
       </c>
       <c r="B399">
@@ -4352,10 +4352,310 @@
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
+          <t>Stock assessment</t>
+        </is>
+      </c>
+      <c r="B400">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>Stock market</t>
+        </is>
+      </c>
+      <c r="B401">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>Strategic financial management</t>
+        </is>
+      </c>
+      <c r="B402">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>Subsistence agriculture</t>
+        </is>
+      </c>
+      <c r="B403">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>Supply chain management</t>
+        </is>
+      </c>
+      <c r="B404">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>Sustainable community</t>
+        </is>
+      </c>
+      <c r="B405">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>Sustainable living</t>
+        </is>
+      </c>
+      <c r="B406">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>Sustainable production</t>
+        </is>
+      </c>
+      <c r="B407">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>Sustainable society</t>
+        </is>
+      </c>
+      <c r="B408">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>Systemic risk</t>
+        </is>
+      </c>
+      <c r="B409">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>Technical change</t>
+        </is>
+      </c>
+      <c r="B410">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>Technical Journalism</t>
+        </is>
+      </c>
+      <c r="B411">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>Total factor productivity</t>
+        </is>
+      </c>
+      <c r="B412">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>Transitional justice</t>
+        </is>
+      </c>
+      <c r="B413">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>Urban agriculture</t>
+        </is>
+      </c>
+      <c r="B414">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>Urban ecology</t>
+        </is>
+      </c>
+      <c r="B415">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>Urban infrastructure</t>
+        </is>
+      </c>
+      <c r="B416">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t>Urban policy</t>
+        </is>
+      </c>
+      <c r="B417">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>Urban politics</t>
+        </is>
+      </c>
+      <c r="B418">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t>Vagueness</t>
+        </is>
+      </c>
+      <c r="B419">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t>Value capture</t>
+        </is>
+      </c>
+      <c r="B420">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t>Viable system model</t>
+        </is>
+      </c>
+      <c r="B421">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t>Video game design</t>
+        </is>
+      </c>
+      <c r="B422">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="inlineStr">
+        <is>
+          <t>Vitalism</t>
+        </is>
+      </c>
+      <c r="B423">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="inlineStr">
+        <is>
+          <t>Vulnerability index</t>
+        </is>
+      </c>
+      <c r="B424">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="inlineStr">
+        <is>
+          <t>Water infrastructure</t>
+        </is>
+      </c>
+      <c r="B425">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="inlineStr">
+        <is>
+          <t>Water sector</t>
+        </is>
+      </c>
+      <c r="B426">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="inlineStr">
+        <is>
+          <t>Water security</t>
+        </is>
+      </c>
+      <c r="B427">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="inlineStr">
+        <is>
+          <t>Welfare reform</t>
+        </is>
+      </c>
+      <c r="B428">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="inlineStr">
+        <is>
+          <t>Welfare state</t>
+        </is>
+      </c>
+      <c r="B429">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="inlineStr">
+        <is>
           <t>Zero-energy building</t>
         </is>
       </c>
-      <c r="B400">
+      <c r="B430">
         <v>1</v>
       </c>
     </row>
